--- a/Templates/Monthly/01 - January 2015.xlsx
+++ b/Templates/Monthly/01 - January 2015.xlsx
@@ -719,6 +719,33 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,6 +753,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,48 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1081,75 +1081,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="59" t="str">
         <f ca="1">MID(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND(".",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1), 5, 20)</f>
-        <v>ays</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+        <v xml:space="preserve"> January 2015</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="57" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="57" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="57" t="s">
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="57" t="s">
+      <c r="L3" s="72"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67"/>
@@ -2743,43 +2743,43 @@
       <c r="A33" s="20">
         <v>29</v>
       </c>
-      <c r="B33" s="68">
-        <v>0</v>
-      </c>
-      <c r="C33" s="69">
-        <v>0</v>
-      </c>
-      <c r="D33" s="70">
+      <c r="B33" s="51">
+        <v>0</v>
+      </c>
+      <c r="C33" s="52">
+        <v>0</v>
+      </c>
+      <c r="D33" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="71">
-        <v>0</v>
-      </c>
-      <c r="F33" s="72">
-        <v>0</v>
-      </c>
-      <c r="G33" s="73">
+      <c r="E33" s="54">
+        <v>0</v>
+      </c>
+      <c r="F33" s="55">
+        <v>0</v>
+      </c>
+      <c r="G33" s="56">
         <f>SUM(E33,F33)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="68">
-        <v>0</v>
-      </c>
-      <c r="I33" s="69">
-        <v>0</v>
-      </c>
-      <c r="J33" s="70">
+      <c r="H33" s="51">
+        <v>0</v>
+      </c>
+      <c r="I33" s="52">
+        <v>0</v>
+      </c>
+      <c r="J33" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="71">
-        <v>0</v>
-      </c>
-      <c r="L33" s="72">
-        <v>0</v>
-      </c>
-      <c r="M33" s="74">
+      <c r="K33" s="54">
+        <v>0</v>
+      </c>
+      <c r="L33" s="55">
+        <v>0</v>
+      </c>
+      <c r="M33" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2798,43 +2798,43 @@
       <c r="A34" s="20">
         <v>30</v>
       </c>
-      <c r="B34" s="68">
-        <v>0</v>
-      </c>
-      <c r="C34" s="69">
-        <v>0</v>
-      </c>
-      <c r="D34" s="70">
+      <c r="B34" s="51">
+        <v>0</v>
+      </c>
+      <c r="C34" s="52">
+        <v>0</v>
+      </c>
+      <c r="D34" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="71">
-        <v>0</v>
-      </c>
-      <c r="F34" s="72">
-        <v>0</v>
-      </c>
-      <c r="G34" s="73">
+      <c r="E34" s="54">
+        <v>0</v>
+      </c>
+      <c r="F34" s="55">
+        <v>0</v>
+      </c>
+      <c r="G34" s="56">
         <f>SUM(E34,F34)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="68">
-        <v>0</v>
-      </c>
-      <c r="I34" s="69">
-        <v>0</v>
-      </c>
-      <c r="J34" s="70">
+      <c r="H34" s="51">
+        <v>0</v>
+      </c>
+      <c r="I34" s="52">
+        <v>0</v>
+      </c>
+      <c r="J34" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="71">
-        <v>0</v>
-      </c>
-      <c r="L34" s="72">
-        <v>0</v>
-      </c>
-      <c r="M34" s="74">
+      <c r="K34" s="54">
+        <v>0</v>
+      </c>
+      <c r="L34" s="55">
+        <v>0</v>
+      </c>
+      <c r="M34" s="57">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2970,29 +2970,29 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="63">
         <f>SUM(G36,J36)</f>
         <v>0</v>
       </c>
       <c r="F37" s="64"/>
       <c r="G37" s="65"/>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54">
+      <c r="I37" s="61"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="68">
         <f>SUM(J36,M36)</f>
         <v>0</v>
       </c>
-      <c r="L37" s="55"/>
-      <c r="M37" s="56"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="70"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
